--- a/mau-file-xuat-code-cho-khach-hang3.xlsx
+++ b/mau-file-xuat-code-cho-khach-hang3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -369,14 +369,22 @@
   </si>
   <si>
     <t>Mã nhãn hiệu</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng</t>
+  </si>
+  <si>
+    <t>20-12-2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="21">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="dd\-mm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -511,6 +519,11 @@
       <name val="Times New Roman"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -524,156 +537,187 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -683,9 +727,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -700,33 +742,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -741,9 +775,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -758,9 +790,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -775,17 +805,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -794,9 +820,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -807,7 +831,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -861,7 +887,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -869,6 +895,10 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
@@ -1188,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -1200,9 +1230,10 @@
     <col min="2" max="2" width="21.00499916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="11.00500011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="4" width="9.50500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.500000">
+    <row r="1" spans="1:9" ht="16.500000">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1227,8 +1258,11 @@
       <c r="H1" s="0" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.500000">
+      <c r="I1" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.500000">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -1250,8 +1284,11 @@
       <c r="H2" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.500000">
+      <c r="I2" s="4">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.500000">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -1273,8 +1310,11 @@
       <c r="H3" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.500000">
+      <c r="I3" s="4">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.500000">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -1296,8 +1336,11 @@
       <c r="H4" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.500000">
+      <c r="I4" s="4">
+        <v>43091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.500000">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -1319,8 +1362,11 @@
       <c r="H5" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.500000">
+      <c r="I5" s="4">
+        <v>43092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.500000">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -1342,8 +1388,11 @@
       <c r="H6" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.500000">
+      <c r="I6" s="4">
+        <v>43093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.500000">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -1365,8 +1414,11 @@
       <c r="H7" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.500000">
+      <c r="I7" s="4">
+        <v>43094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.500000">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -1388,8 +1440,11 @@
       <c r="H8" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.500000">
+      <c r="I8" s="4">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.500000">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -1411,8 +1466,11 @@
       <c r="H9" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.500000">
+      <c r="I9" s="4">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.500000">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -1434,8 +1492,11 @@
       <c r="H10" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.500000">
+      <c r="I10" s="4">
+        <v>43097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.500000">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -1457,8 +1518,11 @@
       <c r="H11" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.500000">
+      <c r="I11" s="4">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.500000">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -1480,8 +1544,11 @@
       <c r="H12" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.500000">
+      <c r="I12" s="4">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.500000">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -1503,8 +1570,11 @@
       <c r="H13" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.500000">
+      <c r="I13" s="4">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.500000">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -1526,8 +1596,11 @@
       <c r="H14" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.500000">
+      <c r="I14" s="4">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.500000">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -1549,8 +1622,11 @@
       <c r="H15" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.500000">
+      <c r="I15" s="4">
+        <v>43102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.500000">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -1572,8 +1648,11 @@
       <c r="H16" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.500000">
+      <c r="I16" s="4">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.500000">
       <c r="A17" s="0">
         <v>16</v>
       </c>
@@ -1595,8 +1674,11 @@
       <c r="H17" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.500000">
+      <c r="I17" s="4">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.500000">
       <c r="A18" s="0">
         <v>17</v>
       </c>
@@ -1618,8 +1700,11 @@
       <c r="H18" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.500000">
+      <c r="I18" s="4">
+        <v>43105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.500000">
       <c r="A19" s="0">
         <v>18</v>
       </c>
@@ -1641,8 +1726,11 @@
       <c r="H19" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.500000">
+      <c r="I19" s="4">
+        <v>43106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.500000">
       <c r="A20" s="0">
         <v>19</v>
       </c>
@@ -1664,8 +1752,11 @@
       <c r="H20" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.500000">
+      <c r="I20" s="4">
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.500000">
       <c r="A21" s="0">
         <v>20</v>
       </c>
@@ -1687,8 +1778,11 @@
       <c r="H21" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.500000">
+      <c r="I21" s="4">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.500000">
       <c r="A22" s="0">
         <v>21</v>
       </c>
@@ -1710,8 +1804,11 @@
       <c r="H22" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.500000">
+      <c r="I22" s="4">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.500000">
       <c r="A23" s="0">
         <v>22</v>
       </c>
@@ -1733,8 +1830,11 @@
       <c r="H23" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.500000">
+      <c r="I23" s="4">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.500000">
       <c r="A24" s="0">
         <v>23</v>
       </c>
@@ -1756,8 +1856,11 @@
       <c r="H24" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.500000">
+      <c r="I24" s="4">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.500000">
       <c r="A25" s="0">
         <v>24</v>
       </c>
@@ -1779,8 +1882,11 @@
       <c r="H25" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.500000">
+      <c r="I25" s="4">
+        <v>43112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.500000">
       <c r="A26" s="0">
         <v>25</v>
       </c>
@@ -1802,8 +1908,11 @@
       <c r="H26" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.500000">
+      <c r="I26" s="4">
+        <v>43113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.500000">
       <c r="A27" s="0">
         <v>26</v>
       </c>
@@ -1825,8 +1934,11 @@
       <c r="H27" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.500000">
+      <c r="I27" s="4">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.500000">
       <c r="A28" s="0">
         <v>27</v>
       </c>
@@ -1848,8 +1960,11 @@
       <c r="H28" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.500000">
+      <c r="I28" s="4">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.500000">
       <c r="A29" s="0">
         <v>28</v>
       </c>
@@ -1871,8 +1986,11 @@
       <c r="H29" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.500000">
+      <c r="I29" s="4">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.500000">
       <c r="A30" s="0">
         <v>29</v>
       </c>
@@ -1894,8 +2012,11 @@
       <c r="H30" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.500000">
+      <c r="I30" s="4">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.500000">
       <c r="A31" s="0">
         <v>30</v>
       </c>
@@ -1917,8 +2038,11 @@
       <c r="H31" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.500000">
+      <c r="I31" s="4">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.500000">
       <c r="A32" s="0">
         <v>31</v>
       </c>
@@ -1940,8 +2064,11 @@
       <c r="H32" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.500000">
+      <c r="I32" s="4">
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.500000">
       <c r="A33" s="0">
         <v>32</v>
       </c>
@@ -1963,8 +2090,11 @@
       <c r="H33" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.500000">
+      <c r="I33" s="4">
+        <v>43120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.500000">
       <c r="A34" s="0">
         <v>33</v>
       </c>
@@ -1986,8 +2116,11 @@
       <c r="H34" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="27.050000">
+      <c r="I34" s="4">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27.050000">
       <c r="A35" s="0">
         <v>34</v>
       </c>
@@ -2009,8 +2142,11 @@
       <c r="H35" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.500000">
+      <c r="I35" s="4">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.500000">
       <c r="A36" s="0">
         <v>35</v>
       </c>
@@ -2032,8 +2168,11 @@
       <c r="H36" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.500000">
+      <c r="I36" s="4">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.500000">
       <c r="A37" s="0">
         <v>36</v>
       </c>
@@ -2055,8 +2194,11 @@
       <c r="H37" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.500000">
+      <c r="I37" s="4">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.500000">
       <c r="A38" s="0">
         <v>37</v>
       </c>
@@ -2078,8 +2220,11 @@
       <c r="H38" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.500000">
+      <c r="I38" s="4">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.500000">
       <c r="A39" s="0">
         <v>38</v>
       </c>
@@ -2101,8 +2246,11 @@
       <c r="H39" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.500000">
+      <c r="I39" s="4">
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.500000">
       <c r="A40" s="0">
         <v>39</v>
       </c>
@@ -2124,8 +2272,11 @@
       <c r="H40" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.500000">
+      <c r="I40" s="4">
+        <v>43127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.500000">
       <c r="A41" s="0">
         <v>40</v>
       </c>
@@ -2147,8 +2298,11 @@
       <c r="H41" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.500000">
+      <c r="I41" s="4">
+        <v>43128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.500000">
       <c r="A42" s="0">
         <v>41</v>
       </c>
@@ -2170,8 +2324,11 @@
       <c r="H42" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.500000">
+      <c r="I42" s="4">
+        <v>43129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.500000">
       <c r="A43" s="0">
         <v>42</v>
       </c>
@@ -2193,8 +2350,11 @@
       <c r="H43" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.500000">
+      <c r="I43" s="4">
+        <v>43130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.500000">
       <c r="A44" s="0">
         <v>43</v>
       </c>
@@ -2216,8 +2376,11 @@
       <c r="H44" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.500000">
+      <c r="I44" s="4">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.500000">
       <c r="A45" s="0">
         <v>44</v>
       </c>
@@ -2239,8 +2402,11 @@
       <c r="H45" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.500000">
+      <c r="I45" s="4">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.500000">
       <c r="A46" s="0">
         <v>45</v>
       </c>
@@ -2262,8 +2428,11 @@
       <c r="H46" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.500000">
+      <c r="I46" s="4">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.500000">
       <c r="A47" s="0">
         <v>46</v>
       </c>
@@ -2285,8 +2454,11 @@
       <c r="H47" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.500000">
+      <c r="I47" s="4">
+        <v>43134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.500000">
       <c r="A48" s="0">
         <v>47</v>
       </c>
@@ -2308,8 +2480,11 @@
       <c r="H48" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.500000">
+      <c r="I48" s="4">
+        <v>43135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.500000">
       <c r="A49" s="0">
         <v>48</v>
       </c>
@@ -2331,8 +2506,11 @@
       <c r="H49" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.500000">
+      <c r="I49" s="4">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.500000">
       <c r="A50" s="0">
         <v>49</v>
       </c>
@@ -2354,8 +2532,11 @@
       <c r="H50" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.500000">
+      <c r="I50" s="4">
+        <v>43137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.500000">
       <c r="A51" s="0">
         <v>50</v>
       </c>
@@ -2377,8 +2558,11 @@
       <c r="H51" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.500000">
+      <c r="I51" s="4">
+        <v>43138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.500000">
       <c r="A52" s="0">
         <v>51</v>
       </c>
@@ -2400,8 +2584,11 @@
       <c r="H52" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.500000">
+      <c r="I52" s="4">
+        <v>43139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.500000">
       <c r="A53" s="0">
         <v>52</v>
       </c>
@@ -2423,8 +2610,11 @@
       <c r="H53" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.500000">
+      <c r="I53" s="4">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.500000">
       <c r="A54" s="0">
         <v>53</v>
       </c>
@@ -2446,8 +2636,11 @@
       <c r="H54" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.500000">
+      <c r="I54" s="4">
+        <v>43141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.500000">
       <c r="A55" s="0">
         <v>54</v>
       </c>
@@ -2469,8 +2662,11 @@
       <c r="H55" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.500000">
+      <c r="I55" s="4">
+        <v>43142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.500000">
       <c r="A56" s="0">
         <v>55</v>
       </c>
@@ -2492,8 +2688,11 @@
       <c r="H56" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.500000">
+      <c r="I56" s="4">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.500000">
       <c r="A57" s="0">
         <v>56</v>
       </c>
@@ -2515,8 +2714,11 @@
       <c r="H57" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.500000">
+      <c r="I57" s="4">
+        <v>43144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.500000">
       <c r="A58" s="0">
         <v>57</v>
       </c>
@@ -2538,8 +2740,11 @@
       <c r="H58" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.500000">
+      <c r="I58" s="4">
+        <v>43145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.500000">
       <c r="A59" s="0">
         <v>58</v>
       </c>
@@ -2561,8 +2766,11 @@
       <c r="H59" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.500000">
+      <c r="I59" s="4">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.500000">
       <c r="A60" s="0">
         <v>59</v>
       </c>
@@ -2584,8 +2792,11 @@
       <c r="H60" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.500000">
+      <c r="I60" s="4">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.500000">
       <c r="A61" s="0">
         <v>60</v>
       </c>
@@ -2607,8 +2818,11 @@
       <c r="H61" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.500000">
+      <c r="I61" s="4">
+        <v>43148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.500000">
       <c r="A62" s="0">
         <v>61</v>
       </c>
@@ -2630,8 +2844,11 @@
       <c r="H62" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.500000">
+      <c r="I62" s="4">
+        <v>43149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.500000">
       <c r="A63" s="0">
         <v>62</v>
       </c>
@@ -2653,8 +2870,11 @@
       <c r="H63" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.500000">
+      <c r="I63" s="4">
+        <v>43150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.500000">
       <c r="A64" s="0">
         <v>63</v>
       </c>
@@ -2676,8 +2896,11 @@
       <c r="H64" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.500000">
+      <c r="I64" s="4">
+        <v>43151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.500000">
       <c r="A65" s="0">
         <v>64</v>
       </c>
@@ -2699,8 +2922,11 @@
       <c r="H65" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.500000">
+      <c r="I65" s="4">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.500000">
       <c r="A66" s="0">
         <v>65</v>
       </c>
@@ -2722,8 +2948,11 @@
       <c r="H66" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="27.050000">
+      <c r="I66" s="4">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="27.050000">
       <c r="A67" s="0">
         <v>66</v>
       </c>
@@ -2745,8 +2974,11 @@
       <c r="H67" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.500000">
+      <c r="I67" s="4">
+        <v>43154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.500000">
       <c r="A68" s="0">
         <v>67</v>
       </c>
@@ -2768,8 +3000,11 @@
       <c r="H68" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.500000">
+      <c r="I68" s="4">
+        <v>43155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.500000">
       <c r="A69" s="0">
         <v>68</v>
       </c>
@@ -2791,8 +3026,11 @@
       <c r="H69" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.500000">
+      <c r="I69" s="4">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.500000">
       <c r="A70" s="0">
         <v>69</v>
       </c>
@@ -2814,8 +3052,11 @@
       <c r="H70" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.500000">
+      <c r="I70" s="4">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.500000">
       <c r="A71" s="0">
         <v>70</v>
       </c>
@@ -2837,8 +3078,11 @@
       <c r="H71" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.500000">
+      <c r="I71" s="4">
+        <v>43158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.500000">
       <c r="A72" s="0">
         <v>71</v>
       </c>
@@ -2860,8 +3104,11 @@
       <c r="H72" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.500000">
+      <c r="I72" s="4">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.500000">
       <c r="A73" s="0">
         <v>72</v>
       </c>
@@ -2883,8 +3130,11 @@
       <c r="H73" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.500000">
+      <c r="I73" s="4">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.500000">
       <c r="A74" s="0">
         <v>73</v>
       </c>
@@ -2906,8 +3156,11 @@
       <c r="H74" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.500000">
+      <c r="I74" s="4">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.500000">
       <c r="A75" s="0">
         <v>74</v>
       </c>
@@ -2929,8 +3182,11 @@
       <c r="H75" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.500000">
+      <c r="I75" s="4">
+        <v>43162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.500000">
       <c r="A76" s="0">
         <v>75</v>
       </c>
@@ -2952,8 +3208,11 @@
       <c r="H76" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.500000">
+      <c r="I76" s="4">
+        <v>43163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.500000">
       <c r="A77" s="0">
         <v>76</v>
       </c>
@@ -2975,8 +3234,11 @@
       <c r="H77" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.500000">
+      <c r="I77" s="4">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.500000">
       <c r="A78" s="0">
         <v>77</v>
       </c>
@@ -2998,8 +3260,11 @@
       <c r="H78" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.500000">
+      <c r="I78" s="4">
+        <v>43165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.500000">
       <c r="A79" s="0">
         <v>78</v>
       </c>
@@ -3021,8 +3286,11 @@
       <c r="H79" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.500000">
+      <c r="I79" s="4">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.500000">
       <c r="A80" s="0">
         <v>79</v>
       </c>
@@ -3044,8 +3312,11 @@
       <c r="H80" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.500000">
+      <c r="I80" s="4">
+        <v>43167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.500000">
       <c r="A81" s="0">
         <v>80</v>
       </c>
@@ -3067,8 +3338,11 @@
       <c r="H81" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="16.500000">
+      <c r="I81" s="4">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.500000">
       <c r="A82" s="0">
         <v>81</v>
       </c>
@@ -3090,8 +3364,11 @@
       <c r="H82" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="16.500000">
+      <c r="I82" s="4">
+        <v>43169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.500000">
       <c r="A83" s="0">
         <v>82</v>
       </c>
@@ -3112,6 +3389,9 @@
       </c>
       <c r="H83" s="0">
         <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>43170</v>
       </c>
     </row>
   </sheetData>
